--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxFile.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxFile.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435AFDE1-04F8-4B22-BFA4-5AA441C51EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22980" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -75,84 +74,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>欄位名稱</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>中文名稱</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>形態</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>長度</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>小數</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>備註說明</t>
-    </r>
-  </si>
-  <si>
     <t>KeyID</t>
   </si>
   <si>
@@ -376,41 +297,6 @@
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>不需簽核</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>需簽核</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -434,15 +320,38 @@
 2.EXCEL
 3.TXT
 4.DBF
-5.CSV</t>
+5.CSV
+6.套印</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位名稱</t>
+  </si>
+  <si>
+    <t>中文名稱</t>
+  </si>
+  <si>
+    <t>形態</t>
+  </si>
+  <si>
+    <t>長度</t>
+  </si>
+  <si>
+    <t>小數</t>
+  </si>
+  <si>
+    <t>備註說明</t>
+  </si>
+  <si>
+    <t>0.不需簽核 1.需簽核</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -510,23 +419,11 @@
       <charset val="136"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="3">
@@ -615,85 +512,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -706,23 +534,80 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00739C75-6C63-4118-B4A6-CEBC1567DD6C}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{02BDD9C1-4B1C-4C7E-9053-8DA3C5803FB6}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -813,23 +698,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -865,23 +733,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1057,462 +908,460 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="6" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" style="20" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="4"/>
+    <col min="1" max="1" width="5.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="27" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="29" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="22"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="23"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="23"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="15">
+      <c r="B8" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="25">
         <v>1</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
+      <c r="B9" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="25">
         <f>A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+      <c r="B10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="25">
         <f t="shared" ref="A11:A25" si="0">A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
+      <c r="B11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="25">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-    </row>
-    <row r="13" spans="1:9" s="21" customFormat="1" ht="78" x14ac:dyDescent="0.3">
-      <c r="A13" s="15">
+      <c r="B12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="25">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
+      <c r="B13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="25">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15">
+      <c r="B14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="25">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="19" t="s">
+      <c r="B15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="D15" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="15">
+    </row>
+    <row r="16" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="25">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
+      <c r="B16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="25">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15">
+      <c r="B17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="25">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
+      <c r="B18" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="25">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15">
+      <c r="B19" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="25">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15">
+      <c r="B20" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="25">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="17"/>
+      <c r="B21" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="15">
+      <c r="A22" s="25">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="17" t="s">
+      <c r="B22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="18"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="15">
+      <c r="C22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="28"/>
+    </row>
+    <row r="23" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="25">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="18">
+      <c r="B23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="15">
+      <c r="A24" s="25">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="18"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="15">
+      <c r="B24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="25">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="19" t="s">
+      <c r="B25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="18">
+      <c r="C25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="28">
         <v>6</v>
       </c>
     </row>
@@ -1533,7 +1382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1543,54 +1392,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="163" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="163" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="29" t="s">
+      <c r="A2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>56</v>
       </c>
+      <c r="C2" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>77</v>
+      <c r="A3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>77</v>
+      <c r="A4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxFile.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxFile.xlsx
@@ -178,10 +178,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>FileType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>檔案型態</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -344,6 +340,10 @@
   </si>
   <si>
     <t>0.不需簽核 1.需簽核</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileType</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1016,22 +1016,22 @@
         <v>0</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="D8" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="E8" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="F8" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="G8" s="23" t="s">
         <v>79</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1083,10 +1083,10 @@
         <v>34</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="7"/>
@@ -1103,10 +1103,10 @@
         <v>35</v>
       </c>
       <c r="D12" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>54</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>55</v>
       </c>
       <c r="F12" s="28"/>
       <c r="G12" s="7"/>
@@ -1117,20 +1117,20 @@
         <v>5</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="E13" s="28" t="s">
         <v>41</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>42</v>
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1139,16 +1139,16 @@
         <v>6</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="D14" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="28" t="s">
         <v>54</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>55</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="7"/>
@@ -1159,20 +1159,20 @@
         <v>7</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="D15" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="28" t="s">
         <v>41</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>42</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -1201,16 +1201,16 @@
         <v>9</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" s="28"/>
       <c r="G17" s="7"/>
@@ -1221,20 +1221,20 @@
         <v>10</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="28" t="s">
         <v>68</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>69</v>
       </c>
       <c r="F18" s="28"/>
       <c r="G18" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1243,16 +1243,16 @@
         <v>11</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F19" s="28"/>
       <c r="G19" s="7"/>
@@ -1263,16 +1263,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="E20" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>61</v>
       </c>
       <c r="F20" s="28"/>
       <c r="G20" s="7"/>
@@ -1283,16 +1283,16 @@
         <v>13</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>61</v>
       </c>
       <c r="F21" s="28"/>
       <c r="G21" s="7"/>
@@ -1411,35 +1411,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxFile.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxFile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22980" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -80,9 +80,6 @@
     <t>varchar2</t>
   </si>
   <si>
-    <t>建檔日期時間</t>
-  </si>
-  <si>
     <t>DATE</t>
   </si>
   <si>
@@ -102,10 +99,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CreateEmpNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>LastUpdate</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -146,10 +139,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>FileCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>檔案序號</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -162,10 +151,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>檔案名稱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>檔案內容</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -178,10 +163,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>檔案型態</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>decimal</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -253,10 +234,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>簽核經辦</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -282,10 +259,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>SignCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>簽核記號</t>
@@ -309,6 +282,56 @@
   </si>
   <si>
     <t xml:space="preserve">FileDate &gt;= ,AND FileDate &lt;= ,AND BrNo = ,AND CreateEmpNo % ,AND FileCode % ,AND FileItem %,AND CreateDate &gt;=,AND CreateDate &lt;  </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位名稱</t>
+  </si>
+  <si>
+    <t>中文名稱</t>
+  </si>
+  <si>
+    <t>形態</t>
+  </si>
+  <si>
+    <t>長度</t>
+  </si>
+  <si>
+    <t>小數</t>
+  </si>
+  <si>
+    <t>備註說明</t>
+  </si>
+  <si>
+    <t>0.不需簽核 1.需簽核</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>建檔日期時間</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>簽核經辦</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>檔案名稱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>檔案型態</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SignCode</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -321,29 +344,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>欄位名稱</t>
-  </si>
-  <si>
-    <t>中文名稱</t>
-  </si>
-  <si>
-    <t>形態</t>
-  </si>
-  <si>
-    <t>長度</t>
-  </si>
-  <si>
-    <t>小數</t>
-  </si>
-  <si>
-    <t>備註說明</t>
-  </si>
-  <si>
-    <t>0.不需簽核 1.需簽核</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FileType</t>
+    <t>CreateEmpNo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -537,71 +538,71 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -911,457 +912,457 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="25" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="21" customWidth="1"/>
     <col min="3" max="3" width="27" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="29" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="25" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.33203125" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="14"/>
+    <col min="8" max="16384" width="21.44140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="21">
+        <v>1</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="25">
-        <v>1</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
+      <c r="D9" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="25">
+      <c r="A10" s="21">
         <f>A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="28"/>
+      <c r="D10" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="24"/>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="25">
+      <c r="A11" s="21">
         <f t="shared" ref="A11:A25" si="0">A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="28"/>
+      <c r="D11" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="24"/>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="25">
+      <c r="A12" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>37</v>
+      <c r="B12" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="28"/>
+        <v>76</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="24"/>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="25">
+      <c r="A13" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>81</v>
+      <c r="B13" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="28"/>
+        <v>78</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="24"/>
       <c r="G13" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="25">
+      <c r="A14" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>43</v>
+      <c r="B14" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="28"/>
+        <v>39</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="24"/>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="25">
+      <c r="A15" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>45</v>
+      <c r="B15" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="28"/>
+      <c r="D15" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="24"/>
       <c r="G15" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="25">
+      <c r="A16" s="21">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>38</v>
+      <c r="B16" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="28"/>
+        <v>32</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="24"/>
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="25">
+      <c r="A17" s="21">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>50</v>
+      <c r="B17" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="28"/>
+      <c r="E17" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="24"/>
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="25">
+      <c r="A18" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>66</v>
+      <c r="B18" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="28"/>
+        <v>60</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="24"/>
       <c r="G18" s="7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="25">
+      <c r="A19" s="21">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>63</v>
+      <c r="B19" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="28"/>
+      <c r="E19" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="24"/>
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="25">
+      <c r="A20" s="21">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>57</v>
+      <c r="B20" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="28"/>
+        <v>75</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="24"/>
       <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="25">
+      <c r="A21" s="21">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>62</v>
+      <c r="B21" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="28"/>
+        <v>55</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="24"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="25">
+      <c r="A22" s="21">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="28"/>
+      <c r="E22" s="24"/>
     </row>
     <row r="23" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="25">
+      <c r="A23" s="21">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="28">
+      <c r="E23" s="24">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="25">
+      <c r="A24" s="21">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="28"/>
+        <v>16</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="24"/>
     </row>
     <row r="25" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="25">
+      <c r="A25" s="21">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="28">
+        <v>17</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="24">
         <v>6</v>
       </c>
     </row>
@@ -1385,9 +1386,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1411,35 +1412,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxFile.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxFile.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -267,10 +267,6 @@
   <si>
     <t>1</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDate DESC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>findByLC009WithCreateDate</t>
@@ -345,6 +341,37 @@
   </si>
   <si>
     <t>CreateEmpNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatchNo</t>
+  </si>
+  <si>
+    <t>批號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatchNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByBatchNoFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatchNo =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate DESC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -910,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -984,7 +1011,9 @@
         <v>4</v>
       </c>
       <c r="B5" s="29"/>
-      <c r="C5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="D5" s="17"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -1017,22 +1046,22 @@
         <v>0</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="G8" s="19" t="s">
         <v>70</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1074,11 +1103,11 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
-        <f t="shared" ref="A11:A25" si="0">A10+1</f>
+        <f t="shared" ref="A11:A26" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>31</v>
@@ -1101,7 +1130,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>48</v>
@@ -1118,10 +1147,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>35</v>
@@ -1131,7 +1160,7 @@
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1222,7 +1251,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>60</v>
@@ -1235,7 +1264,7 @@
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1267,7 +1296,7 @@
         <v>52</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>53</v>
@@ -1303,66 +1332,86 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>74</v>
+      <c r="B22" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="24"/>
-    </row>
-    <row r="23" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="24"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="21">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="E23" s="24"/>
+    </row>
+    <row r="24" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="21">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="24"/>
-    </row>
-    <row r="25" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="E24" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="21">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="24"/>
+    </row>
+    <row r="26" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D26" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E26" s="24">
         <v>6</v>
       </c>
     </row>
@@ -1384,11 +1433,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1426,21 +1475,32 @@
         <v>51</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxFile.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxFile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="91">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -274,10 +274,6 @@
   </si>
   <si>
     <t>FileDate &gt;= ,AND FileDate &lt;= ,AND BrNo = ,AND CreateEmpNo % ,AND FileCode % ,AND FileItem %</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">FileDate &gt;= ,AND FileDate &lt;= ,AND BrNo = ,AND CreateEmpNo % ,AND FileCode % ,AND FileItem %,AND CreateDate &gt;=,AND CreateDate &lt;  </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -372,6 +368,18 @@
   </si>
   <si>
     <t>CreateDate DESC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByFileCodeFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FileDate &gt;= ,AND FileDate &lt;= ,AND BrNo = ,AND CreateEmpNo % ,AND FileCode % ,AND FileItem %,AND CreateDate &gt;=,AND CreateDate &lt;  </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FileCode = </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -939,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1012,7 +1020,7 @@
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="15"/>
@@ -1046,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="G8" s="19" t="s">
         <v>69</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1107,7 +1115,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>31</v>
@@ -1130,7 +1138,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>48</v>
@@ -1147,10 +1155,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>35</v>
@@ -1160,7 +1168,7 @@
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1251,7 +1259,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>60</v>
@@ -1264,7 +1272,7 @@
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1296,7 +1304,7 @@
         <v>52</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>53</v>
@@ -1333,16 +1341,16 @@
         <v>14</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="E22" s="24" t="s">
         <v>83</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>84</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="7"/>
@@ -1356,7 +1364,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>13</v>
@@ -1369,7 +1377,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>14</v>
@@ -1433,11 +1441,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1478,7 +1486,7 @@
         <v>63</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1486,25 +1494,86 @@
         <v>62</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="6" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>88</v>
       </c>
+      <c r="B6" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxFile.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxFile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -95,10 +95,6 @@
     <t>最後更新人員</t>
   </si>
   <si>
-    <t>CreateDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>LastUpdate</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -135,10 +131,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>FileDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>檔案序號</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -203,9 +195,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BrNo</t>
-  </si>
-  <si>
     <t>4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -230,10 +219,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>TlrNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -299,10 +284,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>FileType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>建檔日期時間</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -320,10 +301,6 @@
   </si>
   <si>
     <t>檔案型態</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SignCode</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -336,50 +313,74 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>BatchNo</t>
+  </si>
+  <si>
+    <t>批號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatchNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByBatchNoFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatchNo =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate DESC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByFileCodeFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FileDate &gt;= ,AND FileDate &lt;= ,AND BrNo = ,AND CreateEmpNo % ,AND FileCode % ,AND FileItem %,AND CreateDate &gt;=,AND CreateDate &lt;  </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FileCode = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SignCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TlrNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>CreateEmpNo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BatchNo</t>
-  </si>
-  <si>
-    <t>批號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BatchNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByBatchNoFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BatchNo =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDate DESC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByFileCodeFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">FileDate &gt;= ,AND FileDate &lt;= ,AND BrNo = ,AND CreateEmpNo % ,AND FileCode % ,AND FileItem %,AND CreateDate &gt;=,AND CreateDate &lt;  </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">FileCode = </t>
+    <t>BrNo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -947,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -968,10 +969,10 @@
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
@@ -996,7 +997,7 @@
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="15"/>
@@ -1020,7 +1021,7 @@
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="15"/>
@@ -1054,22 +1055,22 @@
         <v>0</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="G8" s="19" t="s">
         <v>65</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1077,13 +1078,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="D9" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
@@ -1095,16 +1096,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="D10" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="7"/>
@@ -1115,16 +1116,16 @@
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="7"/>
@@ -1135,16 +1136,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="7"/>
@@ -1155,20 +1156,20 @@
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="D13" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1177,16 +1178,16 @@
         <v>6</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="7"/>
@@ -1197,20 +1198,20 @@
         <v>7</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -1219,16 +1220,16 @@
         <v>8</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="7"/>
@@ -1239,16 +1240,16 @@
         <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="7"/>
@@ -1259,20 +1260,20 @@
         <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1281,16 +1282,16 @@
         <v>11</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="7"/>
@@ -1301,16 +1302,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="7"/>
@@ -1321,16 +1322,16 @@
         <v>13</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="7"/>
@@ -1341,16 +1342,16 @@
         <v>14</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="7"/>
@@ -1361,10 +1362,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>13</v>
@@ -1377,7 +1378,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>14</v>
@@ -1395,7 +1396,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>16</v>
@@ -1411,7 +1412,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>17</v>
@@ -1443,7 +1444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
@@ -1469,57 +1470,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
